--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19492" windowHeight="8985"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1027,21 +1040,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:E6"/>
+  <dimension ref="C3:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6283185840708" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6272727272727" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" ht="13.5" spans="3:5">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" ht="13.5" spans="3:5">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" ht="13.5" spans="3:5">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1084,6 +1097,47 @@
       <c r="E6" s="5">
         <v>20001</v>
       </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
